--- a/snakemake/example_data/counts/example_osrCount.mm10.xlsx
+++ b/snakemake/example_data/counts/example_osrCount.mm10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rui/github/OneStopRNAseq/snakemake/example_data/counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185B3CC1-DF3E-3D47-A5D7-C51D5D48785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B377B700-3ECF-9E49-8914-FD626473B8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4591,24 +4591,12 @@
     <t>Gm50321</t>
   </si>
   <si>
-    <t>KO_D2_1</t>
-  </si>
-  <si>
     <t>KO_D2_2:COUNT</t>
   </si>
   <si>
     <t>KO_D8_1:COUNT</t>
   </si>
   <si>
-    <t>KO_D8_2</t>
-  </si>
-  <si>
-    <t>WT_D0_1</t>
-  </si>
-  <si>
-    <t>WT_D0_2</t>
-  </si>
-  <si>
     <t>WT_D2_1</t>
   </si>
   <si>
@@ -4625,6 +4613,18 @@
   </si>
   <si>
     <t>KO_D0_2:COUNT</t>
+  </si>
+  <si>
+    <t>KO_D2_1:COUNT</t>
+  </si>
+  <si>
+    <t>KO_D8_2:COUNT</t>
+  </si>
+  <si>
+    <t>WT_D0_1:COUNT</t>
+  </si>
+  <si>
+    <t>WT_D0_2:COUNT</t>
   </si>
 </sst>
 </file>
@@ -4969,7 +4969,7 @@
   <dimension ref="A1:O753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4993,40 +4993,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J1" t="s">
         <v>1533</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>1534</v>
       </c>
-      <c r="F1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>1525</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>1526</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>1527</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>1528</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
